--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.021921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.021921.xlsx_with_dialog_acts.xlsx
@@ -755,12 +755,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -995,12 +995,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1355,12 +1355,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2315,12 +2315,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2355,12 +2355,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3639,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4399,12 +4399,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4919,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5481,12 +5481,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5521,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5801,12 +5801,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5961,12 +5961,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6361,12 +6361,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6561,12 +6561,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7965,12 +7965,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8045,12 +8045,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8605,12 +8605,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8645,12 +8645,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8845,12 +8845,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9125,12 +9125,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9529,12 +9529,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9649,12 +9649,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9689,12 +9689,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10089,12 +10089,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10611,12 +10611,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10811,12 +10811,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11807,12 +11807,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11927,12 +11927,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12287,12 +12287,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12407,12 +12407,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12753,12 +12753,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13247,12 +13247,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13285,12 +13285,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13513,12 +13513,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14239,12 +14239,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14315,12 +14315,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15643,12 +15643,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16397,12 +16397,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16473,12 +16473,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16511,12 +16511,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16967,12 +16967,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17005,12 +17005,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17119,12 +17119,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17233,12 +17233,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17347,12 +17347,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17765,12 +17765,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18107,12 +18107,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18221,12 +18221,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18373,12 +18373,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18753,12 +18753,12 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18829,12 +18829,12 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18905,12 +18905,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19359,12 +19359,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19549,12 +19549,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19739,12 +19739,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19777,12 +19777,12 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20005,12 +20005,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20309,12 +20309,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20881,12 +20881,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21185,12 +21185,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21223,12 +21223,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21299,12 +21299,12 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21869,12 +21869,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22021,12 +22021,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22135,12 +22135,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
